--- a/Excel Data/Weight List/Kanban Pallet Weight List_7-3.xlsx
+++ b/Excel Data/Weight List/Kanban Pallet Weight List_7-3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="612" documentId="11_F25DC773A252ABEACE02EC95335E46045BDE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9CADB5B3-D1C0-44B8-8F1F-CDBEF928902F}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="11_F25DC773A252ABEACE02EC95335E46045BDE589C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{662E8CD8-CDDD-4D22-BFDF-F946DAEADCDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>Part Number</t>
   </si>
@@ -426,6 +426,15 @@
   <si>
     <t>A2C7471640200</t>
   </si>
+  <si>
+    <t>A2C7716160300</t>
+  </si>
+  <si>
+    <t>Dynaplast</t>
+  </si>
+  <si>
+    <t>A2C7716190300</t>
+  </si>
 </sst>
 </file>
 
@@ -760,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:E111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,11 +4226,21 @@
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="1">
+        <v>240</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="1">
+        <v>80</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4238,11 +4257,21 @@
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="1">
+        <v>240</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="1">
+        <v>80</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
